--- a/新品日销统计.xlsx
+++ b/新品日销统计.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="440" windowWidth="24680" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
     <sheet name="4月7日" sheetId="3" r:id="rId2"/>
+    <sheet name="4月8日" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t>Date</t>
   </si>
@@ -277,6 +279,212 @@
   </si>
   <si>
     <t>https://www.amazon.com/Beckham-Collection-Luxury-Alternative-Reversible/dp/B0798YLZRG/ref=zg_bsnr_10671048011_20/146-2076487-6773110?_encoding=UTF8&amp;psc=1&amp;refRID=0B7S26R879Q676EPMG6B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P3DFR4/ref=zg_bsnr_10671048011_1/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 291 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P61XVF/ref=zg_bsnr_10671048011_2/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 416 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ROSECOSE-Luxurious-Lightweight-Comforter-Hypo-allergenic/dp/B078YPBQ8Z/ref=zg_bsnr_10671048011_3/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 27 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ROSECOSE-Luxurious-Comforter-Insert-Hypo-allergenic/dp/B07B2VFKPC/ref=zg_bsnr_10671048011_4/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 23 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Luxurious-Comforter-Insert-Weight-Lightweight/dp/B07B4H474P/ref=zg_bsnr_10671048011_5/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 136 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1700 Series Luxury Goose Down Alternative Reversible Comforter - Premium Hypoallergenic - All Season - Duvet - King/Cal King - Navy/Sleet</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Alternative-Reversible/dp/B0798YWKJP/ref=zg_bsnr_10671048011_6/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 18 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ROSECOSE-Luxurious-Comforter-Insert-Hypo-allergenic/dp/B07B2VJTRV/ref=zg_bsnr_10671048011_7/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Alternative-Reversible/dp/B0798XR5L2/ref=zg_bsnr_10671048011_8/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 188 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P4MZSP/ref=zg_bsnr_10671048011_9/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 83 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P79NBT/ref=zg_bsnr_10671048011_10/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 191 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1700 Series Luxury Goose Down Alternative Reversible Comforter - Premium Hypoallergenic - All Season - Duvet - Full/Queen - Navy/Sky Blue</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61WnwsW6lVL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Alternative-Reversible/dp/B0798YHLCM/ref=zg_bsnr_10671048011_11/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 178 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P61XVH/ref=zg_bsnr_10671048011_12/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1700 Series Luxury Goose Down Alternative Reversible Comforter - Premium Hypoallergenic - All Season - Duvet - Full/Queen - Gray/White</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61lvCXCH7DL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Alternative-Reversible/dp/B079922BZN/ref=zg_bsnr_10671048011_13/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 295 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection Luxury Soft Brushed Microfiber Duvet Cover Set with Embossed Chevron Pattern - King/Cal King - Gray</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/616L5xQcJrL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Microfiber-Embossed/dp/B07932W1MP/ref=zg_bsnr_10671048011_14/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 14 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1400 Series Egyptian Quality Cotton Goose Down Alternative Comforter - 750 Fill Power - Premium Hypoallergenic All Season Duvet - King/Cal King - Ivory</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61lQVoAF4KL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P51SB5/ref=zg_bsnr_10671048011_15/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 12 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection Luxury Soft Brushed Microfiber Duvet Cover Set with Embossed Chevron Pattern - King/Cal King - White</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61hE%2BaRW4gL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Microfiber-Embossed/dp/B07933CBRL/ref=zg_bsnr_10671048011_16/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 29 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/616UdeuIDeL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Microfiber-Embossed/dp/B078YC283H/ref=zg_bsnr_10671048011_17/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 8 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>ROSECOSE Luxurious All Seasons Goose Down Comforter King Size Duvet Insert Gray 1200 Thread Count 750+ Fill Power 100% Cotton Shell Hypo-allergenic Down Proof With Tabs (King,Gray)</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/91j7yXNlWmL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ROSECOSE-Luxurious-Seasons-Comforter-Hypo-allergenic/dp/B078YQQDY7/ref=zg_bsnr_10671048011_18/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1700 Series Luxury Goose Down Alternative Reversible Comforter - Premium Hypoallergenic - All Season - Duvet - King/Cal King - Burgundy/Grey</t>
+  </si>
+  <si>
+    <t>https://images-na.ssl-images-amazon.com/images/I/61HM%2BeS1aSL._SX425_.jpg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Collection-Luxury-Alternative-Reversible/dp/B0798ZGQ2Q/ref=zg_bsnr_10671048011_19/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1400 Series Egyptian Quality Cotton Goose Down Alternative Comforter - 750 Fill Power - Premium Hypoallergenic All Season Duvet - Full/Queen - Chocolate</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Beckham-Hotel-Collection-Alternative-Comforter/dp/B079P66G4B/ref=zg_bsnr_10671048011_20/131-9509914-6460768?_encoding=UTF8&amp;psc=1&amp;refRID=4CNQZM2HDN1AF2SDFJDC</t>
+  </si>
+  <si>
+    <t>This seller has only 46 of these available. To see if more are available from another seller, go to the product detail page.</t>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1400 Series Egyptian Quality Cotton Goose Down Alternative Comforter - 750 Fill Power - Premium Hypoallergenic All Season Duvet - Full/Queen - Navy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1400 Series Egyptian Quality Cotton Goose Down Alternative Comforter - 750 Fill Power - Premium Hypoallergenic All Season Duvet - King/Cal King - Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beckham Hotel Collection 1400 Series Egyptian Quality Cotton Goose Down Alternative Comforter - 750 Fill Power - Premium Hypoallergenic All Season Duvet - Full/Queen - Gray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量</t>
+    <rPh sb="0" eb="1">
+      <t>xn'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <rPh sb="0" eb="1">
+      <t>ku'cy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品标题</t>
+    <rPh sb="0" eb="1">
+      <t>ij'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bn'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次序</t>
+    <rPh sb="0" eb="1">
+      <t>ci'xu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -342,7 +550,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -394,14 +602,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -427,6 +663,16 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -452,6 +698,16 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,273 +1005,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="31.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C1" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C1" s="4">
         <v>43197.717592592591</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="D1" s="4">
+        <v>43197.717592592591</v>
+      </c>
+      <c r="E1" s="4">
+        <v>43198.677129629628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>308</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3-E3</f>
+        <v>17</v>
+      </c>
+      <c r="E3" s="5">
+        <f>VLOOKUP(B3,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>425</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D22" si="0">C4-E4</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <f>VLOOKUP(B4,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <f>VLOOKUP(B5,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>138</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>VLOOKUP(B6,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>85</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <f>VLOOKUP(B7,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5">
+        <v>74</v>
+      </c>
+      <c r="D8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="5" t="e">
+        <f>VLOOKUP(B8,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>155</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+      <c r="E9" s="5">
+        <f>VLOOKUP(B9,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="5">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="5" t="e">
+        <f>VLOOKUP(B10,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <f>VLOOKUP(B11,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
+        <v>152</v>
+      </c>
+      <c r="D12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="5" t="e">
+        <f>VLOOKUP(B12,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
-        <v>308</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="E13" s="5">
+        <f>VLOOKUP(B13,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="5">
+        <v>456</v>
+      </c>
+      <c r="D14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="5" t="e">
+        <f>VLOOKUP(B14,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E15" s="5" t="e">
+        <f>VLOOKUP(B15,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="5">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E16" s="5">
+        <f>VLOOKUP(B16,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="5">
+        <v>189</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2">
-        <v>425</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E17" s="5">
+        <f>VLOOKUP(B17,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5">
+        <v>204</v>
+      </c>
+      <c r="D18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="5" t="e">
+        <f>VLOOKUP(B18,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <f>VLOOKUP(B19,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="5">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="5" t="e">
+        <f>VLOOKUP(B20,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="5" t="e">
+        <f>VLOOKUP(B21,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5">
         <v>138</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>85</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2">
-        <v>155</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2">
-        <v>152</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2">
-        <v>456</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2">
-        <v>33</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2">
-        <v>189</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2">
-        <v>204</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2">
-        <v>138</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="5" t="e">
+        <f>VLOOKUP(B22,'4月8日'!$C$2:$I$21,7,0)</f>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -1038,674 +1453,674 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>43197.717592592591</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>4.7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>82</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>308</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>43197.717743055553</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>4.7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>82</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>425</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>43197.717858796299</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>43197.717962962961</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>4.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>153</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>44</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>138</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>43197.718113425923</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>4.7</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>82</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>85</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>43197.718217592592</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>74</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>43197.718368055554</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>4.7</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>82</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>155</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>43197.718472222223</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>4.5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>153</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>44</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>19</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>43197.718587962961</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>35</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>43197.7187037037</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>4.7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>126</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>152</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43197.718854166669</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>4.7</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>82</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>12</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>22</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43197.719039351854</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>15</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>456</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43197.719212962962</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>31</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>50</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43197.719328703701</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>4</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>33</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43197.719363425924</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>4.3</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>17</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>189</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43197.719525462962</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>4.7</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>191</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>21</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>204</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>43197.719675925924</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>11</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>9</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>43197.719826388886</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>4.7</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>82</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>12</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>84</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>43197.720023148147</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>4.8</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>460</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>17</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>43197.720185185186</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>4.7</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>191</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>21</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>138</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1714,4 +2129,708 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>43198.676979166667</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>84</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="1">
+        <v>291</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>43198.677129629628</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="1">
+        <v>416</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>43198.677245370367</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="1">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>43198.677372685182</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="1">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>43198.677488425928</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>153</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="1">
+        <v>136</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>43198.677662037036</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>196</v>
+      </c>
+      <c r="F7" s="1">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="1">
+        <v>18</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>43198.677777777775</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="1">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>43198.677812499998</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="1">
+        <v>188</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>43198.67796296296</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1">
+        <v>83</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>43198.678101851852</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="1">
+        <v>191</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>43198.678252314814</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>196</v>
+      </c>
+      <c r="F12" s="1">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="1">
+        <v>178</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>43198.678402777776</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>84</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="1">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>43198.678576388891</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E14" s="1">
+        <v>196</v>
+      </c>
+      <c r="F14" s="1">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="1">
+        <v>295</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>43198.678715277776</v>
+      </c>
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="1">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>43198.678877314815</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="1">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>43198.67900462963</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="1">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>43198.679155092592</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>43198.679270833331</v>
+      </c>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="1">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>43198.679432870369</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E20" s="1">
+        <v>196</v>
+      </c>
+      <c r="F20" s="1">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="1">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>43198.679583333331</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="E21" s="1">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="1">
+        <v>46</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>